--- a/data/trans_dic/P43C-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P43C-Edad-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2284288044970814</v>
+        <v>0.2293061771244074</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3399204872209415</v>
+        <v>0.3456083976617247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.376868684834414</v>
+        <v>0.3788735649041471</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1059801980236623</v>
+        <v>0.1055575999158756</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3064876598261944</v>
+        <v>0.3121101159050248</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4383234599514074</v>
+        <v>0.4365045506776842</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4744465753087912</v>
+        <v>0.4768875310619671</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.220274634802736</v>
+        <v>0.2242998783439183</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.6749629221035395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5203219711236582</v>
+        <v>0.5203219711236581</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.591118460002604</v>
+        <v>0.5899276007256868</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7068176775994196</v>
+        <v>0.70585890682678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6347239112076919</v>
+        <v>0.6363364075123061</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4606787510507856</v>
+        <v>0.4615630875604761</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6694910409723932</v>
+        <v>0.6723692510268851</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7800302659795935</v>
+        <v>0.7806122534042292</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.713878041179781</v>
+        <v>0.7099177170286878</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5731960460154794</v>
+        <v>0.5695692735779254</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.7887281493193635</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6845838121165281</v>
+        <v>0.6845838121165279</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6816629303215678</v>
+        <v>0.6817327609818564</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7852850789950938</v>
+        <v>0.7826380315923862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7565179925508587</v>
+        <v>0.7575240798029418</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6475791307118186</v>
+        <v>0.6440731969889361</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7498493711728664</v>
+        <v>0.7515471694211907</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8457746454933354</v>
+        <v>0.8454092720520999</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8193296987524338</v>
+        <v>0.8196066781433635</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7197838419401289</v>
+        <v>0.7196649672429637</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6832007723866044</v>
+        <v>0.6834834482576981</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7637921005837974</v>
+        <v>0.7651641362972768</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7342096526968405</v>
+        <v>0.7281990291113173</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7227818200628288</v>
+        <v>0.7195092683771802</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7645324161477005</v>
+        <v>0.7620233213598038</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8302204883109096</v>
+        <v>0.8305951137940732</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7988393427201819</v>
+        <v>0.7997324695736555</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.782954824704249</v>
+        <v>0.780678928356638</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5164075768333024</v>
+        <v>0.5144068410690145</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6713817833710526</v>
+        <v>0.6688142027049071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6256803245019148</v>
+        <v>0.6299372419219416</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6738435025979078</v>
+        <v>0.6733940740360097</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6133568449989966</v>
+        <v>0.6167551310049761</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7604344337255983</v>
+        <v>0.7619195236847423</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7139966958562763</v>
+        <v>0.7159255724182012</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7375496595641114</v>
+        <v>0.7393593052136112</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3389153019202739</v>
+        <v>0.3442920737926322</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4650889573037134</v>
+        <v>0.4646814808172621</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5243240983645095</v>
+        <v>0.5288270301294583</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5849474726418732</v>
+        <v>0.5859351626007987</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4394430558102482</v>
+        <v>0.4456333144941987</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5710499038983153</v>
+        <v>0.5681936427427553</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6296172553414393</v>
+        <v>0.6305011886116128</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6628207630707238</v>
+        <v>0.663161483244527</v>
       </c>
     </row>
     <row r="22">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1577248613517884</v>
+        <v>0.1579231351397362</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2457471694190078</v>
+        <v>0.243699710296185</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2987208293659998</v>
+        <v>0.3032578736363303</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4006702787050659</v>
+        <v>0.3980122601042733</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2489770400725532</v>
+        <v>0.2521517505260391</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3477172292502309</v>
+        <v>0.3420467554713674</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4046262077922027</v>
+        <v>0.4160547582283626</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.479428750355148</v>
+        <v>0.4739133653276574</v>
       </c>
     </row>
     <row r="25">
@@ -1049,7 +1049,7 @@
         <v>0.6394171953292009</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.5793751845427149</v>
+        <v>0.5793751845427151</v>
       </c>
     </row>
     <row r="26">
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5202205148780882</v>
+        <v>0.5185389829580822</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6333750864083513</v>
+        <v>0.6339079466856339</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6239200703340392</v>
+        <v>0.623462457887602</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5619294092235907</v>
+        <v>0.5618397888916334</v>
       </c>
     </row>
     <row r="27">
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5548732931486725</v>
+        <v>0.5542279318459997</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6664989728235774</v>
+        <v>0.667523406241641</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6556910068448542</v>
+        <v>0.6568374336463259</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5960486258011589</v>
+        <v>0.5968302605884683</v>
       </c>
     </row>
     <row r="28">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>105503</v>
+        <v>105908</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>145253</v>
+        <v>147683</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>145365</v>
+        <v>146139</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>32038</v>
+        <v>31910</v>
       </c>
     </row>
     <row r="7">
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>141555</v>
+        <v>144152</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>187302</v>
+        <v>186525</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>183003</v>
+        <v>183945</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>66589</v>
+        <v>67806</v>
       </c>
     </row>
     <row r="8">
@@ -1325,16 +1325,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>366207</v>
+        <v>365469</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>428188</v>
+        <v>427607</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>356450</v>
+        <v>357356</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>169587</v>
+        <v>169913</v>
       </c>
     </row>
     <row r="11">
@@ -1345,16 +1345,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>414760</v>
+        <v>416543</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>472540</v>
+        <v>472893</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>400902</v>
+        <v>398678</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>211008</v>
+        <v>209673</v>
       </c>
     </row>
     <row r="12">
@@ -1409,16 +1409,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>468259</v>
+        <v>468307</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>554288</v>
+        <v>552420</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>497094</v>
+        <v>497755</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>274144</v>
+        <v>272659</v>
       </c>
     </row>
     <row r="15">
@@ -1429,16 +1429,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>515099</v>
+        <v>516265</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>596984</v>
+        <v>596726</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>538366</v>
+        <v>538548</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>304710</v>
+        <v>304660</v>
       </c>
     </row>
     <row r="16">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>346514</v>
+        <v>346657</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>470648</v>
+        <v>471493</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>472395</v>
+        <v>468528</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>366484</v>
+        <v>364825</v>
       </c>
     </row>
     <row r="19">
@@ -1513,16 +1513,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>387765</v>
+        <v>386492</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>511581</v>
+        <v>511812</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>513978</v>
+        <v>514553</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>396995</v>
+        <v>395841</v>
       </c>
     </row>
     <row r="20">
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>204415</v>
+        <v>203623</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>295948</v>
+        <v>294816</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>308910</v>
+        <v>311012</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>299659</v>
+        <v>299459</v>
       </c>
     </row>
     <row r="23">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>242791</v>
+        <v>244136</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>335203</v>
+        <v>335857</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>352514</v>
+        <v>353466</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>327989</v>
+        <v>328794</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>113765</v>
+        <v>115570</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>162351</v>
+        <v>162209</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>195410</v>
+        <v>197089</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>201977</v>
+        <v>202318</v>
       </c>
     </row>
     <row r="27">
@@ -1681,16 +1681,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>147509</v>
+        <v>149587</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>199340</v>
+        <v>198343</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>234652</v>
+        <v>234981</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>228865</v>
+        <v>228983</v>
       </c>
     </row>
     <row r="28">
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>50477</v>
+        <v>50540</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>92726</v>
+        <v>91953</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>117240</v>
+        <v>119021</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>155893</v>
+        <v>154859</v>
       </c>
     </row>
     <row r="31">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>79680</v>
+        <v>80696</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>131201</v>
+        <v>129061</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>158806</v>
+        <v>163291</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>186537</v>
+        <v>184391</v>
       </c>
     </row>
     <row r="32">
@@ -1829,16 +1829,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1730800</v>
+        <v>1725205</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2230971</v>
+        <v>2232848</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2187883</v>
+        <v>2186278</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1562097</v>
+        <v>1561848</v>
       </c>
     </row>
     <row r="35">
@@ -1849,16 +1849,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1846091</v>
+        <v>1843944</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2347645</v>
+        <v>2351253</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2299293</v>
+        <v>2303313</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1656945</v>
+        <v>1659118</v>
       </c>
     </row>
     <row r="36">
